--- a/Final excel files/RawData.xlsx
+++ b/Final excel files/RawData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/ch7170310_iitd_ac_in/Documents/Courses/Sem8/MTP CLD880/New Codes in Jupyter/Final excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_A7B41FD3DD966FEB2A08F5F07214C9F8982321B2" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{84BED2E3-CC1E-49CF-8E43-C3CDF81D8811}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_A7B41FD3DD966FEB2A08F5F07214C9F8982321B2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4875C58C-6869-411A-B3D6-4F92BF2B89AD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,33 @@
     <sheet name="November" sheetId="11" r:id="rId11"/>
     <sheet name="December" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>500nm</t>
+  </si>
+  <si>
+    <t>No. of particles in 1 m3 of air</t>
+  </si>
+  <si>
+    <t>Original aerosol number of particles in 1 m3 of air</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,7 +74,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -65,6 +90,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -96,17 +127,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -447,663 +479,678 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DC11"/>
+  <dimension ref="A1:DI18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="CQ1" workbookViewId="0">
+      <selection activeCell="CY21" sqref="CY21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="107" max="109" width="12" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="12" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="3">
+    <row r="1" spans="1:113" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6">
         <v>12.6</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="6">
         <v>13.1</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="6">
         <v>13.6</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="6">
         <v>14.1</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="6">
         <v>14.6</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="6">
         <v>15.1</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="6">
         <v>15.7</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="6">
         <v>16.3</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="6">
         <v>16.8</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="6">
         <v>17.5</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="6">
         <v>18.100000000000001</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="6">
         <v>18.8</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="6">
         <v>19.5</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="6">
         <v>20.2</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="6">
         <v>20.9</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="6">
         <v>21.7</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="6">
         <v>22.5</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="6">
         <v>23.3</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="6">
         <v>24.1</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="6">
         <v>25</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="6">
         <v>25.9</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="6">
         <v>26.9</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="6">
         <v>27.9</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="6">
         <v>28.9</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="6">
         <v>30</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="6">
         <v>31.1</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="6">
         <v>32.200000000000003</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="6">
         <v>33.4</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="6">
         <v>34.6</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="6">
         <v>35.9</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="6">
         <v>37.200000000000003</v>
       </c>
-      <c r="AG1" s="3">
+      <c r="AG1" s="6">
         <v>38.5</v>
       </c>
-      <c r="AH1" s="3">
+      <c r="AH1" s="6">
         <v>40</v>
       </c>
-      <c r="AI1" s="3">
+      <c r="AI1" s="6">
         <v>41.4</v>
       </c>
-      <c r="AJ1" s="3">
+      <c r="AJ1" s="6">
         <v>42.9</v>
       </c>
-      <c r="AK1" s="3">
+      <c r="AK1" s="6">
         <v>44.5</v>
       </c>
-      <c r="AL1" s="3">
+      <c r="AL1" s="6">
         <v>46.1</v>
       </c>
-      <c r="AM1" s="3">
+      <c r="AM1" s="6">
         <v>47.8</v>
       </c>
-      <c r="AN1" s="3">
+      <c r="AN1" s="6">
         <v>49.6</v>
       </c>
-      <c r="AO1" s="3">
+      <c r="AO1" s="6">
         <v>51.4</v>
       </c>
-      <c r="AP1" s="3">
+      <c r="AP1" s="6">
         <v>53.3</v>
       </c>
-      <c r="AQ1" s="3">
+      <c r="AQ1" s="6">
         <v>55.2</v>
       </c>
-      <c r="AR1" s="3">
+      <c r="AR1" s="6">
         <v>57.3</v>
       </c>
-      <c r="AS1" s="3">
+      <c r="AS1" s="6">
         <v>59.4</v>
       </c>
-      <c r="AT1" s="3">
+      <c r="AT1" s="6">
         <v>61.5</v>
       </c>
-      <c r="AU1" s="3">
+      <c r="AU1" s="6">
         <v>63.8</v>
       </c>
-      <c r="AV1" s="3">
+      <c r="AV1" s="6">
         <v>66.099999999999994</v>
       </c>
-      <c r="AW1" s="3">
+      <c r="AW1" s="6">
         <v>68.5</v>
       </c>
-      <c r="AX1" s="3">
+      <c r="AX1" s="6">
         <v>71</v>
       </c>
-      <c r="AY1" s="3">
+      <c r="AY1" s="6">
         <v>73.7</v>
       </c>
-      <c r="AZ1" s="3">
+      <c r="AZ1" s="6">
         <v>76.400000000000006</v>
       </c>
-      <c r="BA1" s="3">
+      <c r="BA1" s="6">
         <v>79.099999999999994</v>
       </c>
-      <c r="BB1" s="3">
+      <c r="BB1" s="6">
         <v>82</v>
       </c>
-      <c r="BC1" s="3">
+      <c r="BC1" s="6">
         <v>85.1</v>
       </c>
-      <c r="BD1" s="3">
+      <c r="BD1" s="6">
         <v>88.2</v>
       </c>
-      <c r="BE1" s="3">
+      <c r="BE1" s="6">
         <v>91.4</v>
       </c>
-      <c r="BF1" s="3">
+      <c r="BF1" s="6">
         <v>94.7</v>
       </c>
-      <c r="BG1" s="3">
+      <c r="BG1" s="6">
         <v>98.2</v>
       </c>
-      <c r="BH1" s="3">
+      <c r="BH1" s="6">
         <v>101.8</v>
       </c>
-      <c r="BI1" s="3">
+      <c r="BI1" s="6">
         <v>105.5</v>
       </c>
-      <c r="BJ1" s="3">
+      <c r="BJ1" s="6">
         <v>109.4</v>
       </c>
-      <c r="BK1" s="3">
+      <c r="BK1" s="6">
         <v>113.4</v>
       </c>
-      <c r="BL1" s="3">
+      <c r="BL1" s="6">
         <v>117.6</v>
       </c>
-      <c r="BM1" s="3">
+      <c r="BM1" s="6">
         <v>121.9</v>
       </c>
-      <c r="BN1" s="3">
+      <c r="BN1" s="6">
         <v>126.3</v>
       </c>
-      <c r="BO1" s="3">
+      <c r="BO1" s="6">
         <v>131</v>
       </c>
-      <c r="BP1" s="3">
+      <c r="BP1" s="6">
         <v>135.80000000000001</v>
       </c>
-      <c r="BQ1" s="3">
+      <c r="BQ1" s="6">
         <v>140.69999999999999</v>
       </c>
-      <c r="BR1" s="3">
+      <c r="BR1" s="6">
         <v>145.9</v>
       </c>
-      <c r="BS1" s="3">
+      <c r="BS1" s="6">
         <v>151.19999999999999</v>
       </c>
-      <c r="BT1" s="3">
+      <c r="BT1" s="6">
         <v>156.80000000000001</v>
       </c>
-      <c r="BU1" s="3">
+      <c r="BU1" s="6">
         <v>162.5</v>
       </c>
-      <c r="BV1" s="3">
+      <c r="BV1" s="6">
         <v>168.5</v>
       </c>
-      <c r="BW1" s="3">
+      <c r="BW1" s="6">
         <v>174.7</v>
       </c>
-      <c r="BX1" s="3">
+      <c r="BX1" s="6">
         <v>181.1</v>
       </c>
-      <c r="BY1" s="3">
+      <c r="BY1" s="6">
         <v>187.7</v>
       </c>
-      <c r="BZ1" s="3">
+      <c r="BZ1" s="6">
         <v>194.6</v>
       </c>
-      <c r="CA1" s="3">
+      <c r="CA1" s="6">
         <v>201.7</v>
       </c>
-      <c r="CB1" s="3">
+      <c r="CB1" s="6">
         <v>209.1</v>
       </c>
-      <c r="CC1" s="3">
+      <c r="CC1" s="6">
         <v>216.7</v>
       </c>
-      <c r="CD1" s="3">
+      <c r="CD1" s="6">
         <v>224.7</v>
       </c>
-      <c r="CE1" s="3">
+      <c r="CE1" s="6">
         <v>232.9</v>
       </c>
-      <c r="CF1" s="3">
+      <c r="CF1" s="6">
         <v>241.4</v>
       </c>
-      <c r="CG1" s="3">
+      <c r="CG1" s="6">
         <v>250.3</v>
       </c>
-      <c r="CH1" s="3">
+      <c r="CH1" s="6">
         <v>259.5</v>
       </c>
-      <c r="CI1" s="3">
+      <c r="CI1" s="6">
         <v>269</v>
       </c>
-      <c r="CJ1" s="3">
+      <c r="CJ1" s="6">
         <v>278.8</v>
       </c>
-      <c r="CK1" s="3">
+      <c r="CK1" s="6">
         <v>289</v>
       </c>
-      <c r="CL1" s="3">
+      <c r="CL1" s="6">
         <v>299.60000000000002</v>
       </c>
-      <c r="CM1" s="3">
+      <c r="CM1" s="6">
         <v>310.60000000000002</v>
       </c>
-      <c r="CN1" s="3">
+      <c r="CN1" s="6">
         <v>322</v>
       </c>
-      <c r="CO1" s="3">
+      <c r="CO1" s="6">
         <v>333.8</v>
       </c>
-      <c r="CP1" s="3">
+      <c r="CP1" s="6">
         <v>346</v>
       </c>
-      <c r="CQ1" s="3">
+      <c r="CQ1" s="6">
         <v>358.7</v>
       </c>
-      <c r="CR1" s="3">
+      <c r="CR1" s="6">
         <v>371.8</v>
       </c>
-      <c r="CS1" s="3">
+      <c r="CS1" s="6">
         <v>385.4</v>
       </c>
-      <c r="CT1" s="3">
+      <c r="CT1" s="6">
         <v>399.5</v>
       </c>
-      <c r="CU1" s="3">
+      <c r="CU1" s="6">
         <v>414.2</v>
       </c>
-      <c r="CV1" s="3">
+      <c r="CV1" s="6">
         <v>429.4</v>
       </c>
-      <c r="CW1" s="3">
+      <c r="CW1" s="6">
         <v>445.1</v>
       </c>
-      <c r="CX1" s="3">
+      <c r="CX1" s="6">
         <v>461.4</v>
       </c>
-      <c r="CY1" s="3">
+      <c r="CY1" s="6">
         <v>478.3</v>
       </c>
-      <c r="CZ1" s="3">
+      <c r="CZ1" s="6">
         <v>495.8</v>
       </c>
-      <c r="DA1" s="3">
+      <c r="DA1" s="6">
         <v>514</v>
       </c>
-      <c r="DB1" s="3">
+      <c r="DB1" s="6">
         <v>532.79999999999995</v>
       </c>
-      <c r="DC1" s="3">
+      <c r="DC1" s="6">
         <v>552.29999999999995</v>
       </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>30.0361660846185</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>33.163768032439883</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>43.563101921613708</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>64.157855839816776</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>93.373790601115658</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <v>120.94656570631309</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>159.66169859081651</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="5">
         <v>210.2725985542688</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="5">
         <v>254.27503100778461</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="5">
         <v>309.52306950808469</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="5">
         <v>363.09904172403537</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="5">
         <v>424.35251118174278</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="5">
         <v>482.36364250974867</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="5">
         <v>536.86926689163033</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="5">
         <v>594.92821723978057</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="5">
         <v>642.7607749632233</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="5">
         <v>691.10967914775267</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="5">
         <v>734.04457755226645</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="5">
         <v>775.86197570149386</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="5">
         <v>816.04998811037171</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="5">
         <v>853.1366265191067</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="5">
         <v>882.18888016521555</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="5">
         <v>900.79805431386683</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="5">
         <v>922.68947031377081</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="5">
         <v>933.57900548899033</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="5">
         <v>947.2766355231422</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="5">
         <v>960.72944177502848</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="5">
         <v>960.73656107620809</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="5">
         <v>970.47587413140354</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="5">
         <v>968.65534307356791</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="5">
         <v>976.02057936356266</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="5">
         <v>977.69306967793273</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="5">
         <v>986.04527127806273</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="5">
         <v>990.68957788379828</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="5">
         <v>1001.990646008631</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="5">
         <v>1008.719883116344</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="5">
         <v>1022.580916766552</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="5">
         <v>1032.942502291846</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="5">
         <v>1048.407517231951</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="5">
         <v>1063.227393306556</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="5">
         <v>1078.7068349920539</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="5">
         <v>1095.5285840915219</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="5">
         <v>1106.655161921642</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="5">
         <v>1120.0182864781591</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="5">
         <v>1129.3499806762479</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="5">
         <v>1135.833597586404</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="5">
         <v>1139.1961479853869</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="5">
         <v>1144.2329719740239</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="5">
         <v>1140.070457874979</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="5">
         <v>1138.652114491271</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="5">
         <v>1135.1943303109711</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" s="5">
         <v>1127.6834931813539</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" s="5">
         <v>1113.6593981092151</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" s="5">
         <v>1099.8245093233079</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" s="5">
         <v>1086.9162972788729</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" s="5">
         <v>1065.971696497744</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" s="5">
         <v>1047.0208985663839</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" s="5">
         <v>1026.2445324692951</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" s="5">
         <v>1003.479223309414</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" s="5">
         <v>978.16080339747623</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" s="5">
         <v>953.06603667494016</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" s="5">
         <v>928.98577828989255</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" s="5">
         <v>900.27335456431319</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" s="5">
         <v>875.56829242691333</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" s="5">
         <v>848.3606038155865</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" s="5">
         <v>821.28840715167314</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" s="5">
         <v>793.056006860813</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" s="5">
         <v>769.42221775920223</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" s="5">
         <v>743.98277266936952</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" s="5">
         <v>715.50487960495479</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" s="5">
         <v>688.1338723149621</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" s="5">
         <v>663.21906545646345</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" s="5">
         <v>636.85915782325515</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" s="5">
         <v>612.8853290597159</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" s="5">
         <v>585.32972796669753</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" s="5">
         <v>560.74561109732247</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" s="5">
         <v>531.66339981717397</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" s="5">
         <v>507.58665601785532</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" s="5">
         <v>482.04794037774218</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" s="5">
         <v>457.02226656934118</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" s="5">
         <v>432.031725152484</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" s="5">
         <v>406.68113710490479</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" s="5">
         <v>384.90740564655641</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" s="5">
         <v>360.84476079137238</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" s="5">
         <v>337.33718464105129</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" s="5">
         <v>315.67098478403409</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" s="5">
         <v>293.91566767219928</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" s="5">
         <v>273.71447293798008</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" s="5">
         <v>254.79259587513181</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" s="5">
         <v>234.90559430334511</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" s="5">
         <v>217.44521552944721</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" s="5">
         <v>200.80470530589781</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" s="5">
         <v>183.57430111705281</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" s="5">
         <v>168.6617347714303</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" s="5">
         <v>155.34961853464981</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" s="5">
         <v>142.1667715178171</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" s="5">
         <v>129.46049724039179</v>
       </c>
-      <c r="CU2">
+      <c r="CU2" s="5">
         <v>118.2202627696953</v>
       </c>
-      <c r="CV2">
+      <c r="CV2" s="5">
         <v>107.94261538285249</v>
       </c>
-      <c r="CW2">
+      <c r="CW2" s="5">
         <v>97.410266647277055</v>
       </c>
-      <c r="CX2">
+      <c r="CX2" s="5">
         <v>88.445528298429565</v>
       </c>
-      <c r="CY2">
+      <c r="CY2" s="5">
         <v>79.931606469725722</v>
       </c>
-      <c r="CZ2">
+      <c r="CZ2" s="5">
         <v>72.028055917253383</v>
       </c>
-      <c r="DA2">
+      <c r="DA2" s="5">
         <v>65.022269031480562</v>
       </c>
-      <c r="DB2">
+      <c r="DB2" s="5">
         <v>57.80416335871498</v>
       </c>
-      <c r="DC2">
+      <c r="DC2" s="5">
         <v>51.401083878234772</v>
       </c>
+      <c r="DD2">
+        <f>SUM(B2:DC2)</f>
+        <v>68006.86749168775</v>
+      </c>
+      <c r="DE2">
+        <f>DD2*10^6</f>
+        <v>68006867491.687752</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>9</v>
       </c>
       <c r="B3">
@@ -1424,9 +1471,13 @@
       <c r="DC3">
         <v>42.239812182233472</v>
       </c>
+      <c r="DE3">
+        <f>DE2/DH12</f>
+        <v>32.835617948779017</v>
+      </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>10</v>
       </c>
       <c r="B4">
@@ -1748,8 +1799,8 @@
         <v>41.431722397073322</v>
       </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>11</v>
       </c>
       <c r="B5">
@@ -2071,8 +2122,8 @@
         <v>38.64864655525669</v>
       </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>12</v>
       </c>
       <c r="B6">
@@ -2394,8 +2445,8 @@
         <v>35.531707361243853</v>
       </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>13</v>
       </c>
       <c r="B7">
@@ -2717,8 +2768,8 @@
         <v>31.340932299149159</v>
       </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>14</v>
       </c>
       <c r="B8">
@@ -3040,8 +3091,8 @@
         <v>25.806458593925679</v>
       </c>
     </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>15</v>
       </c>
       <c r="B9">
@@ -3363,8 +3414,8 @@
         <v>23.844609194485109</v>
       </c>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>16</v>
       </c>
       <c r="B10">
@@ -3686,8 +3737,8 @@
         <v>24.910525016582781</v>
       </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>17</v>
       </c>
       <c r="B11">
@@ -4007,6 +4058,1220 @@
       </c>
       <c r="DC11">
         <v>25.321503214004689</v>
+      </c>
+      <c r="DG11">
+        <f>3.14*(500*10^( -9))^3/6</f>
+        <v>6.5416666666666692E-20</v>
+      </c>
+      <c r="DH11">
+        <f>DG11*1.5*10^12</f>
+        <v>9.8125000000000027E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="DG12" t="s">
+        <v>0</v>
+      </c>
+      <c r="DH12">
+        <f>DE13/DH11</f>
+        <v>2071131038.1846054</v>
+      </c>
+      <c r="DI12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>B2*3.14*B1^3/6</f>
+        <v>31443.764151755051</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:BN13" si="0">C2*3.14*C1^3/6</f>
+        <v>39017.204816836937</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>57347.424596171833</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>94120.792874693623</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>152076.44608077468</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>217922.85532394421</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>323353.89763306524</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>476566.91927754442</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>630971.81313639379</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>868131.60500415985</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>1126780.2471305358</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>1475634.2337370173</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1871788.5995315074</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>2315799.9994664276</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>2842377.9399025738</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>3437217.1096113143</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>4119769.5889321733</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>4859242.7527118558</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>5683475.5159445154</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>6672908.7569441861</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>7757044.3994132904</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>8986629.0854253527</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>10238078.306706933</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>11655408.261925727</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>13191471.347559435</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>14912017.009126373</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="0"/>
+        <v>16785995.901428062</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="0"/>
+        <v>18733637.674551189</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="0"/>
+        <v>21037369.620215055</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="0"/>
+        <v>23454761.533008207</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="0"/>
+        <v>26294577.209462736</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="0"/>
+        <v>29198673.574227616</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="0"/>
+        <v>33025942.952673245</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="0"/>
+        <v>36788918.024837881</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="0"/>
+        <v>41401296.501830533</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="0"/>
+        <v>46518854.509608924</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="0"/>
+        <v>52429879.261139929</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="0"/>
+        <v>59038897.001398891</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="0"/>
+        <v>66950458.167289972</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="0"/>
+        <v>75560341.494647071</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="0"/>
+        <v>85479791.726267144</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="0"/>
+        <v>96431593.714547262</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="0"/>
+        <v>108956859.68982561</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="0"/>
+        <v>122846516.54365031</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="0"/>
+        <v>137477711.39462399</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="0"/>
+        <v>154367241.9174825</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="0"/>
+        <v>172179437.21163073</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="0"/>
+        <v>192470675.40580776</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="0"/>
+        <v>213542899.83604395</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="0"/>
+        <v>238545878.96429744</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" si="0"/>
+        <v>264928503.80917406</v>
+      </c>
+      <c r="BA13">
+        <f t="shared" si="0"/>
+        <v>292075461.47276169</v>
+      </c>
+      <c r="BB13">
+        <f t="shared" si="0"/>
+        <v>321345587.79206342</v>
+      </c>
+      <c r="BC13">
+        <f t="shared" si="0"/>
+        <v>354723917.08039963</v>
+      </c>
+      <c r="BD13">
+        <f t="shared" si="0"/>
+        <v>390283556.34876841</v>
+      </c>
+      <c r="BE13">
+        <f t="shared" si="0"/>
+        <v>425953958.31414467</v>
+      </c>
+      <c r="BF13">
+        <f t="shared" si="0"/>
+        <v>465354250.41922808</v>
+      </c>
+      <c r="BG13">
+        <f t="shared" si="0"/>
+        <v>508585199.39304608</v>
+      </c>
+      <c r="BH13">
+        <f t="shared" si="0"/>
+        <v>554025962.22616494</v>
+      </c>
+      <c r="BI13">
+        <f t="shared" si="0"/>
+        <v>601099037.40050495</v>
+      </c>
+      <c r="BJ13">
+        <f t="shared" si="0"/>
+        <v>653060410.60732651</v>
+      </c>
+      <c r="BK13">
+        <f t="shared" si="0"/>
+        <v>708967989.47972155</v>
+      </c>
+      <c r="BL13">
+        <f t="shared" si="0"/>
+        <v>766257537.15802324</v>
+      </c>
+      <c r="BM13">
+        <f t="shared" si="0"/>
+        <v>830002767.22200859</v>
+      </c>
+      <c r="BN13">
+        <f t="shared" si="0"/>
+        <v>894476513.95836449</v>
+      </c>
+      <c r="BO13">
+        <f t="shared" ref="BO13:DC13" si="1">BO2*3.14*BO1^3/6</f>
+        <v>966246596.71318638</v>
+      </c>
+      <c r="BP13">
+        <f t="shared" si="1"/>
+        <v>1039397257.2625378</v>
+      </c>
+      <c r="BQ13">
+        <f t="shared" si="1"/>
+        <v>1121567491.3929915</v>
+      </c>
+      <c r="BR13">
+        <f t="shared" si="1"/>
+        <v>1209225098.3666632</v>
+      </c>
+      <c r="BS13">
+        <f t="shared" si="1"/>
+        <v>1294334034.5088496</v>
+      </c>
+      <c r="BT13">
+        <f t="shared" si="1"/>
+        <v>1388319771.3290942</v>
+      </c>
+      <c r="BU13">
+        <f t="shared" si="1"/>
+        <v>1489345631.6981285</v>
+      </c>
+      <c r="BV13">
+        <f t="shared" si="1"/>
+        <v>1594488941.3232174</v>
+      </c>
+      <c r="BW13">
+        <f t="shared" si="1"/>
+        <v>1710158401.1016092</v>
+      </c>
+      <c r="BX13">
+        <f t="shared" si="1"/>
+        <v>1819425722.8695126</v>
+      </c>
+      <c r="BY13">
+        <f t="shared" si="1"/>
+        <v>1940604788.3197405</v>
+      </c>
+      <c r="BZ13">
+        <f t="shared" si="1"/>
+        <v>2050423967.1039855</v>
+      </c>
+      <c r="CA13">
+        <f t="shared" si="1"/>
+        <v>2179748004.2527528</v>
+      </c>
+      <c r="CB13">
+        <f t="shared" si="1"/>
+        <v>2306379279.8029246</v>
+      </c>
+      <c r="CC13">
+        <f t="shared" si="1"/>
+        <v>2433842617.4421749</v>
+      </c>
+      <c r="CD13">
+        <f t="shared" si="1"/>
+        <v>2565093819.4057708</v>
+      </c>
+      <c r="CE13">
+        <f t="shared" si="1"/>
+        <v>2688690994.1136746</v>
+      </c>
+      <c r="CF13">
+        <f t="shared" si="1"/>
+        <v>2833651663.3385286</v>
+      </c>
+      <c r="CG13">
+        <f t="shared" si="1"/>
+        <v>2961292798.9734931</v>
+      </c>
+      <c r="CH13">
+        <f t="shared" si="1"/>
+        <v>3084996675.1134753</v>
+      </c>
+      <c r="CI13">
+        <f t="shared" si="1"/>
+        <v>3215658366.441649</v>
+      </c>
+      <c r="CJ13">
+        <f t="shared" si="1"/>
+        <v>3333338692.0622025</v>
+      </c>
+      <c r="CK13">
+        <f t="shared" si="1"/>
+        <v>3457559701.2124763</v>
+      </c>
+      <c r="CL13">
+        <f t="shared" si="1"/>
+        <v>3585837694.8329234</v>
+      </c>
+      <c r="CM13">
+        <f t="shared" si="1"/>
+        <v>3683630935.3200078</v>
+      </c>
+      <c r="CN13">
+        <f t="shared" si="1"/>
+        <v>3799232476.8549781</v>
+      </c>
+      <c r="CO13">
+        <f t="shared" si="1"/>
+        <v>3908510471.2450242</v>
+      </c>
+      <c r="CP13">
+        <f t="shared" si="1"/>
+        <v>3979408997.4968181</v>
+      </c>
+      <c r="CQ13">
+        <f t="shared" si="1"/>
+        <v>4073700446.7868938</v>
+      </c>
+      <c r="CR13">
+        <f t="shared" si="1"/>
+        <v>4178464773.1469893</v>
+      </c>
+      <c r="CS13">
+        <f t="shared" si="1"/>
+        <v>4259039125.6174393</v>
+      </c>
+      <c r="CT13">
+        <f t="shared" si="1"/>
+        <v>4319823665.9473219</v>
+      </c>
+      <c r="CU13">
+        <f t="shared" si="1"/>
+        <v>4396434443.8585138</v>
+      </c>
+      <c r="CV13">
+        <f t="shared" si="1"/>
+        <v>4472573173.1358347</v>
+      </c>
+      <c r="CW13">
+        <f t="shared" si="1"/>
+        <v>4495271353.5279703</v>
+      </c>
+      <c r="CX13">
+        <f t="shared" si="1"/>
+        <v>4546603151.4546404</v>
+      </c>
+      <c r="CY13">
+        <f t="shared" si="1"/>
+        <v>4577180950.8166866</v>
+      </c>
+      <c r="CZ13">
+        <f t="shared" si="1"/>
+        <v>4594091682.9852648</v>
+      </c>
+      <c r="DA13">
+        <f t="shared" si="1"/>
+        <v>4620935167.4961119</v>
+      </c>
+      <c r="DB13">
+        <f t="shared" si="1"/>
+        <v>4575411568.1656637</v>
+      </c>
+      <c r="DC13">
+        <f t="shared" si="1"/>
+        <v>4531852896.6827736</v>
+      </c>
+      <c r="DD13">
+        <f>SUM(B13:DC13)*10^(-27)</f>
+        <v>1.3548648874790964E-16</v>
+      </c>
+      <c r="DE13">
+        <f>1.5*(10^12)*DD13*10^6</f>
+        <v>203.22973312186446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>30.0361660846185</v>
+      </c>
+      <c r="C15" s="5">
+        <v>33.163768032439883</v>
+      </c>
+      <c r="D15" s="5">
+        <v>43.563101921613708</v>
+      </c>
+      <c r="E15" s="5">
+        <v>64.157855839816776</v>
+      </c>
+      <c r="F15" s="5">
+        <v>93.373790601115658</v>
+      </c>
+      <c r="G15" s="5">
+        <v>120.94656570631309</v>
+      </c>
+      <c r="H15" s="5">
+        <v>159.66169859081651</v>
+      </c>
+      <c r="I15" s="5">
+        <v>210.2725985542688</v>
+      </c>
+      <c r="J15" s="5">
+        <v>254.27503100778461</v>
+      </c>
+      <c r="K15" s="5">
+        <v>309.52306950808469</v>
+      </c>
+      <c r="L15" s="5">
+        <v>363.09904172403537</v>
+      </c>
+      <c r="M15" s="5">
+        <v>424.35251118174278</v>
+      </c>
+      <c r="N15" s="5">
+        <v>482.36364250974867</v>
+      </c>
+      <c r="O15" s="5">
+        <v>536.86926689163033</v>
+      </c>
+      <c r="P15" s="5">
+        <v>594.92821723978057</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>642.7607749632233</v>
+      </c>
+      <c r="R15" s="5">
+        <v>691.10967914775267</v>
+      </c>
+      <c r="S15" s="5">
+        <v>734.04457755226645</v>
+      </c>
+      <c r="T15" s="5">
+        <v>775.86197570149386</v>
+      </c>
+      <c r="U15" s="5">
+        <v>816.04998811037171</v>
+      </c>
+      <c r="V15" s="5">
+        <v>853.1366265191067</v>
+      </c>
+      <c r="W15" s="5">
+        <v>882.18888016521555</v>
+      </c>
+      <c r="X15" s="5">
+        <v>900.79805431386683</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>922.68947031377081</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>933.57900548899033</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>947.2766355231422</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>960.72944177502848</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>960.73656107620809</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>970.47587413140354</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>968.65534307356791</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>976.02057936356266</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>977.69306967793273</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>986.04527127806273</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>990.68957788379828</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>1001.990646008631</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>1008.719883116344</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>1022.580916766552</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>1032.942502291846</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>1048.407517231951</v>
+      </c>
+      <c r="AO15" s="5">
+        <v>1063.227393306556</v>
+      </c>
+      <c r="AP15" s="5">
+        <v>1078.7068349920539</v>
+      </c>
+      <c r="AQ15" s="5">
+        <v>1095.5285840915219</v>
+      </c>
+      <c r="AR15" s="5">
+        <v>1106.655161921642</v>
+      </c>
+      <c r="AS15" s="5">
+        <v>1120.0182864781591</v>
+      </c>
+      <c r="AT15" s="5">
+        <v>1129.3499806762479</v>
+      </c>
+      <c r="AU15" s="5">
+        <v>1135.833597586404</v>
+      </c>
+      <c r="AV15" s="5">
+        <v>1139.1961479853869</v>
+      </c>
+      <c r="AW15" s="5">
+        <v>1144.2329719740239</v>
+      </c>
+      <c r="AX15" s="5">
+        <v>1140.070457874979</v>
+      </c>
+      <c r="AY15" s="5">
+        <v>1138.652114491271</v>
+      </c>
+      <c r="AZ15" s="5">
+        <v>1135.1943303109711</v>
+      </c>
+      <c r="BA15" s="5">
+        <v>1127.6834931813539</v>
+      </c>
+      <c r="BB15" s="5">
+        <v>1113.6593981092151</v>
+      </c>
+      <c r="BC15" s="5">
+        <v>1099.8245093233079</v>
+      </c>
+      <c r="BD15" s="5">
+        <v>1086.9162972788729</v>
+      </c>
+      <c r="BE15" s="5">
+        <v>1065.971696497744</v>
+      </c>
+      <c r="BF15" s="5">
+        <v>1047.0208985663839</v>
+      </c>
+      <c r="BG15" s="5">
+        <v>1026.2445324692951</v>
+      </c>
+      <c r="BH15" s="5">
+        <v>1003.479223309414</v>
+      </c>
+      <c r="BI15" s="5">
+        <v>978.16080339747623</v>
+      </c>
+      <c r="BJ15" s="5">
+        <v>953.06603667494016</v>
+      </c>
+      <c r="BK15" s="5">
+        <v>928.98577828989255</v>
+      </c>
+      <c r="BL15" s="5">
+        <v>900.27335456431319</v>
+      </c>
+      <c r="BM15" s="5">
+        <v>875.56829242691333</v>
+      </c>
+      <c r="BN15" s="5">
+        <v>848.3606038155865</v>
+      </c>
+      <c r="BO15" s="5">
+        <v>821.28840715167314</v>
+      </c>
+      <c r="BP15" s="5">
+        <v>793.056006860813</v>
+      </c>
+      <c r="BQ15" s="5">
+        <v>769.42221775920223</v>
+      </c>
+      <c r="BR15" s="5">
+        <v>743.98277266936952</v>
+      </c>
+      <c r="BS15" s="5">
+        <v>715.50487960495479</v>
+      </c>
+      <c r="BT15" s="5">
+        <v>688.1338723149621</v>
+      </c>
+      <c r="BU15" s="5">
+        <v>663.21906545646345</v>
+      </c>
+      <c r="BV15" s="5">
+        <v>636.85915782325515</v>
+      </c>
+      <c r="BW15" s="5">
+        <v>612.8853290597159</v>
+      </c>
+      <c r="BX15" s="5">
+        <v>585.32972796669753</v>
+      </c>
+      <c r="BY15" s="5">
+        <v>560.74561109732247</v>
+      </c>
+      <c r="BZ15" s="5">
+        <v>531.66339981717397</v>
+      </c>
+      <c r="CA15" s="5">
+        <v>507.58665601785532</v>
+      </c>
+      <c r="CB15" s="5">
+        <v>482.04794037774218</v>
+      </c>
+      <c r="CC15" s="5">
+        <v>457.02226656934118</v>
+      </c>
+      <c r="CD15" s="5">
+        <v>432.031725152484</v>
+      </c>
+      <c r="CE15" s="5">
+        <v>406.68113710490479</v>
+      </c>
+      <c r="CF15" s="5">
+        <v>384.90740564655641</v>
+      </c>
+      <c r="CG15" s="5">
+        <v>360.84476079137238</v>
+      </c>
+      <c r="CH15" s="5">
+        <v>337.33718464105129</v>
+      </c>
+      <c r="CI15" s="5">
+        <v>315.67098478403409</v>
+      </c>
+      <c r="CJ15" s="5">
+        <v>293.91566767219928</v>
+      </c>
+      <c r="CK15" s="5">
+        <v>273.71447293798008</v>
+      </c>
+      <c r="CL15" s="5">
+        <v>254.79259587513181</v>
+      </c>
+      <c r="CM15" s="5">
+        <v>234.90559430334511</v>
+      </c>
+      <c r="CN15" s="5">
+        <v>217.44521552944721</v>
+      </c>
+      <c r="CO15" s="5">
+        <v>200.80470530589781</v>
+      </c>
+      <c r="CP15" s="5">
+        <v>183.57430111705281</v>
+      </c>
+      <c r="CQ15" s="5">
+        <v>168.6617347714303</v>
+      </c>
+      <c r="CR15" s="5">
+        <v>155.34961853464981</v>
+      </c>
+      <c r="CS15" s="5">
+        <v>142.1667715178171</v>
+      </c>
+      <c r="CT15" s="5">
+        <v>129.46049724039179</v>
+      </c>
+      <c r="CU15" s="5">
+        <v>118.2202627696953</v>
+      </c>
+      <c r="CV15" s="5">
+        <v>107.94261538285249</v>
+      </c>
+      <c r="CW15" s="5">
+        <v>97.410266647277055</v>
+      </c>
+      <c r="CX15" s="5">
+        <v>88.445528298429565</v>
+      </c>
+      <c r="CY15" s="5">
+        <v>79.931606469725722</v>
+      </c>
+      <c r="CZ15" s="5">
+        <v>72.028055917253383</v>
+      </c>
+      <c r="DA15" s="5">
+        <v>65.022269031480562</v>
+      </c>
+      <c r="DB15" s="5">
+        <v>57.80416335871498</v>
+      </c>
+      <c r="DC15" s="5">
+        <v>51.401083878234772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:113" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>(4/3)*3.14*((B1*0.0000001)/2)^3*1.5*B15</f>
+        <v>4.7165646227632581E-17</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:BN16" si="2">(4/3)*3.14*((C1*0.0000001)/2)^3*1.5*C15</f>
+        <v>5.8525807225255403E-17</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>8.602113689425773E-17</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>1.4118118931204036E-16</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>2.2811466912116199E-16</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>3.268842829859163E-16</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>4.8503084644959765E-16</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>7.1485037891631663E-16</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>9.4645771970459034E-16</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>1.3021974075062397E-15</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>1.6901703706958027E-15</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>2.2134513506055248E-15</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>2.80768289929726E-15</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>3.4736999991996399E-15</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>4.2635669098538609E-15</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>5.1558256644169703E-15</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>6.1796543833982615E-15</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>7.2888641290677864E-15</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>8.5252132739167746E-15</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>1.0009363135416274E-14</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>1.1635566599119932E-14</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>1.3479943628138025E-14</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>1.5357117460060391E-14</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="2"/>
+        <v>1.7483112392888592E-14</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="2"/>
+        <v>1.9787207021339153E-14</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="2"/>
+        <v>2.2368025513689554E-14</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="2"/>
+        <v>2.5178993852142094E-14</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="2"/>
+        <v>2.8100456511826784E-14</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="2"/>
+        <v>3.1556054430322574E-14</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="2"/>
+        <v>3.5182142299512311E-14</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="2"/>
+        <v>3.9441865814194087E-14</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="2"/>
+        <v>4.3798010361341403E-14</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="2"/>
+        <v>4.9538914429009864E-14</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="2"/>
+        <v>5.5183377037256786E-14</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="2"/>
+        <v>6.2101944752745792E-14</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="2"/>
+        <v>6.9778281764413368E-14</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="2"/>
+        <v>7.8644818891709861E-14</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="2"/>
+        <v>8.8558345502098283E-14</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="2"/>
+        <v>1.0042568725093494E-13</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="2"/>
+        <v>1.1334051224197057E-13</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="2"/>
+        <v>1.2821968758940069E-13</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="2"/>
+        <v>1.4464739057182083E-13</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="2"/>
+        <v>1.6343528953473838E-13</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="2"/>
+        <v>1.8426977481547547E-13</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="2"/>
+        <v>2.0621656709193592E-13</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="2"/>
+        <v>2.315508628762237E-13</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="2"/>
+        <v>2.5826915581744607E-13</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="2"/>
+        <v>2.8870601310871154E-13</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="2"/>
+        <v>3.2031434975406585E-13</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="2"/>
+        <v>3.5781881844644608E-13</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="2"/>
+        <v>3.9739275571376089E-13</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="2"/>
+        <v>4.3811319220914247E-13</v>
+      </c>
+      <c r="BB16">
+        <f t="shared" si="2"/>
+        <v>4.82018381688095E-13</v>
+      </c>
+      <c r="BC16">
+        <f t="shared" si="2"/>
+        <v>5.3208587562059957E-13</v>
+      </c>
+      <c r="BD16">
+        <f t="shared" si="2"/>
+        <v>5.8542533452315246E-13</v>
+      </c>
+      <c r="BE16">
+        <f t="shared" si="2"/>
+        <v>6.3893093747121692E-13</v>
+      </c>
+      <c r="BF16">
+        <f t="shared" si="2"/>
+        <v>6.9803137562884184E-13</v>
+      </c>
+      <c r="BG16">
+        <f t="shared" si="2"/>
+        <v>7.6287779908956871E-13</v>
+      </c>
+      <c r="BH16">
+        <f t="shared" si="2"/>
+        <v>8.3103894333924723E-13</v>
+      </c>
+      <c r="BI16">
+        <f t="shared" si="2"/>
+        <v>9.0164855610075718E-13</v>
+      </c>
+      <c r="BJ16">
+        <f t="shared" si="2"/>
+        <v>9.7959061591098974E-13</v>
+      </c>
+      <c r="BK16">
+        <f t="shared" si="2"/>
+        <v>1.0634519842195818E-12</v>
+      </c>
+      <c r="BL16">
+        <f t="shared" si="2"/>
+        <v>1.1493863057370346E-12</v>
+      </c>
+      <c r="BM16">
+        <f t="shared" si="2"/>
+        <v>1.2450041508330125E-12</v>
+      </c>
+      <c r="BN16">
+        <f t="shared" si="2"/>
+        <v>1.3417147709375467E-12</v>
+      </c>
+      <c r="BO16">
+        <f t="shared" ref="BO16:DB16" si="3">(4/3)*3.14*((BO1*0.0000001)/2)^3*1.5*BO15</f>
+        <v>1.4493698950697792E-12</v>
+      </c>
+      <c r="BP16">
+        <f t="shared" si="3"/>
+        <v>1.5590958858938062E-12</v>
+      </c>
+      <c r="BQ16">
+        <f t="shared" si="3"/>
+        <v>1.6823512370894865E-12</v>
+      </c>
+      <c r="BR16">
+        <f t="shared" si="3"/>
+        <v>1.8138376475499939E-12</v>
+      </c>
+      <c r="BS16">
+        <f t="shared" si="3"/>
+        <v>1.941501051763274E-12</v>
+      </c>
+      <c r="BT16">
+        <f t="shared" si="3"/>
+        <v>2.0824796569936405E-12</v>
+      </c>
+      <c r="BU16">
+        <f t="shared" si="3"/>
+        <v>2.2340184475471915E-12</v>
+      </c>
+      <c r="BV16">
+        <f t="shared" si="3"/>
+        <v>2.3917334119848259E-12</v>
+      </c>
+      <c r="BW16">
+        <f t="shared" si="3"/>
+        <v>2.5652376016524127E-12</v>
+      </c>
+      <c r="BX16">
+        <f t="shared" si="3"/>
+        <v>2.7291385843042679E-12</v>
+      </c>
+      <c r="BY16">
+        <f t="shared" si="3"/>
+        <v>2.9109071824796108E-12</v>
+      </c>
+      <c r="BZ16">
+        <f t="shared" si="3"/>
+        <v>3.0756359506559786E-12</v>
+      </c>
+      <c r="CA16">
+        <f t="shared" si="3"/>
+        <v>3.2696220063791291E-12</v>
+      </c>
+      <c r="CB16">
+        <f t="shared" si="3"/>
+        <v>3.4595689197043858E-12</v>
+      </c>
+      <c r="CC16">
+        <f t="shared" si="3"/>
+        <v>3.6507639261632622E-12</v>
+      </c>
+      <c r="CD16">
+        <f t="shared" si="3"/>
+        <v>3.8476407291086545E-12</v>
+      </c>
+      <c r="CE16">
+        <f t="shared" si="3"/>
+        <v>4.0330364911705113E-12</v>
+      </c>
+      <c r="CF16">
+        <f t="shared" si="3"/>
+        <v>4.2504774950077922E-12</v>
+      </c>
+      <c r="CG16">
+        <f t="shared" si="3"/>
+        <v>4.4419391984602375E-12</v>
+      </c>
+      <c r="CH16">
+        <f t="shared" si="3"/>
+        <v>4.6274950126702091E-12</v>
+      </c>
+      <c r="CI16">
+        <f t="shared" si="3"/>
+        <v>4.8234875496624734E-12</v>
+      </c>
+      <c r="CJ16">
+        <f t="shared" si="3"/>
+        <v>5.0000080380933033E-12</v>
+      </c>
+      <c r="CK16">
+        <f t="shared" si="3"/>
+        <v>5.1863395518187129E-12</v>
+      </c>
+      <c r="CL16">
+        <f t="shared" si="3"/>
+        <v>5.3787565422493827E-12</v>
+      </c>
+      <c r="CM16">
+        <f t="shared" si="3"/>
+        <v>5.5254464029800119E-12</v>
+      </c>
+      <c r="CN16">
+        <f t="shared" si="3"/>
+        <v>5.6988487152824637E-12</v>
+      </c>
+      <c r="CO16">
+        <f t="shared" si="3"/>
+        <v>5.8627657068675362E-12</v>
+      </c>
+      <c r="CP16">
+        <f t="shared" si="3"/>
+        <v>5.9691134962452279E-12</v>
+      </c>
+      <c r="CQ16">
+        <f t="shared" si="3"/>
+        <v>6.1105506701803417E-12</v>
+      </c>
+      <c r="CR16">
+        <f t="shared" si="3"/>
+        <v>6.2676971597204821E-12</v>
+      </c>
+      <c r="CS16">
+        <f t="shared" si="3"/>
+        <v>6.3885586884261568E-12</v>
+      </c>
+      <c r="CT16">
+        <f t="shared" si="3"/>
+        <v>6.4797354989209799E-12</v>
+      </c>
+      <c r="CU16">
+        <f t="shared" si="3"/>
+        <v>6.5946516657877704E-12</v>
+      </c>
+      <c r="CV16">
+        <f t="shared" si="3"/>
+        <v>6.7088597597037523E-12</v>
+      </c>
+      <c r="CW16">
+        <f t="shared" si="3"/>
+        <v>6.7429070302919561E-12</v>
+      </c>
+      <c r="CX16">
+        <f t="shared" si="3"/>
+        <v>6.8199047271819574E-12</v>
+      </c>
+      <c r="CY16">
+        <f t="shared" si="3"/>
+        <v>6.86577142622503E-12</v>
+      </c>
+      <c r="CZ16">
+        <f t="shared" si="3"/>
+        <v>6.8911375244778946E-12</v>
+      </c>
+      <c r="DA16">
+        <f t="shared" si="3"/>
+        <v>6.9314027512441678E-12</v>
+      </c>
+      <c r="DB16">
+        <f t="shared" si="3"/>
+        <v>6.863117352248495E-12</v>
+      </c>
+      <c r="DC16">
+        <f>(4/3)*3.14*(((DC1*0.0000001)/2)^3)*1.5*DC15</f>
+        <v>6.7977793450241598E-12</v>
+      </c>
+      <c r="DD16">
+        <f>SUM(B16:DC16)</f>
+        <v>2.0322973312186444E-10</v>
+      </c>
+      <c r="DE16">
+        <f>DD16*10^12</f>
+        <v>203.22973312186443</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>SUM(B16:BH16)*10^12</f>
+        <v>8.6262468038448148</v>
       </c>
     </row>
   </sheetData>
@@ -18270,7 +19535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DC11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -25396,7 +26663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:DC11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="CJ1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:DC6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -28959,7 +30228,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:DC11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -36085,7 +37356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:DC11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
